--- a/docss/carto/country/E_ataxy.xlsx
+++ b/docss/carto/country/E_ataxy.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\documents\carto\country\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Archivos de Elena\Documents\GitHub\ic3design\docss\carto\country\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -531,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,16 +648,16 @@
         <v>9</v>
       </c>
       <c r="C5" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D5" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E5" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F5" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="9"/>
@@ -676,16 +676,16 @@
         <v>10</v>
       </c>
       <c r="C6" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D6" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E6" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F6" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="9"/>
@@ -760,16 +760,16 @@
         <v>13</v>
       </c>
       <c r="C9" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D9" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E9" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F9" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="9"/>
@@ -788,16 +788,16 @@
         <v>14</v>
       </c>
       <c r="C10" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D10" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E10" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F10" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="9"/>
@@ -844,16 +844,16 @@
         <v>16</v>
       </c>
       <c r="C12" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D12" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E12" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F12" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="9"/>
@@ -927,10 +927,18 @@
       <c r="B15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="C15" s="4">
+        <v>99</v>
+      </c>
+      <c r="D15" s="4">
+        <v>99</v>
+      </c>
+      <c r="E15" s="4">
+        <v>99</v>
+      </c>
+      <c r="F15" s="4">
+        <v>99</v>
+      </c>
       <c r="H15" s="8"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1115,6 +1123,18 @@
       <c r="B22" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="C22" s="4">
+        <v>99</v>
+      </c>
+      <c r="D22" s="4">
+        <v>99</v>
+      </c>
+      <c r="E22" s="4">
+        <v>99</v>
+      </c>
+      <c r="F22" s="4">
+        <v>99</v>
+      </c>
       <c r="H22" s="8"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1171,10 +1191,18 @@
       <c r="B25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="C25" s="4">
+        <v>99</v>
+      </c>
+      <c r="D25" s="4">
+        <v>99</v>
+      </c>
+      <c r="E25" s="4">
+        <v>99</v>
+      </c>
+      <c r="F25" s="4">
+        <v>99</v>
+      </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
@@ -1304,16 +1332,16 @@
         <v>36</v>
       </c>
       <c r="C32" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D32" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E32" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F32" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1324,16 +1352,16 @@
         <v>37</v>
       </c>
       <c r="C33" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D33" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E33" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F33" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1344,16 +1372,16 @@
         <v>38</v>
       </c>
       <c r="C34" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D34" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E34" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F34" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1364,16 +1392,16 @@
         <v>39</v>
       </c>
       <c r="C35" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D35" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E35" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F35" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1384,16 +1412,16 @@
         <v>40</v>
       </c>
       <c r="C36" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D36" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E36" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F36" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1404,16 +1432,16 @@
         <v>41</v>
       </c>
       <c r="C37" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D37" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E37" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F37" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1424,16 +1452,16 @@
         <v>42</v>
       </c>
       <c r="C38" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D38" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E38" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F38" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1444,16 +1472,16 @@
         <v>43</v>
       </c>
       <c r="C39" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D39" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E39" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F39" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1464,16 +1492,16 @@
         <v>44</v>
       </c>
       <c r="C40" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D40" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E40" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F40" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1484,16 +1512,16 @@
         <v>45</v>
       </c>
       <c r="C41" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D41" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E41" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F41" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1504,16 +1532,16 @@
         <v>46</v>
       </c>
       <c r="C42" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D42" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E42" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F42" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1524,16 +1552,16 @@
         <v>47</v>
       </c>
       <c r="C43" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D43" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E43" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F43" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1544,16 +1572,16 @@
         <v>48</v>
       </c>
       <c r="C44" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D44" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E44" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F44" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">

--- a/docss/carto/country/E_ataxy.xlsx
+++ b/docss/carto/country/E_ataxy.xlsx
@@ -532,7 +532,7 @@
   <dimension ref="A1:O83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32:F44"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,16 +984,16 @@
         <v>21</v>
       </c>
       <c r="C17" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D17" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E17" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F17" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="9"/>
@@ -1012,16 +1012,16 @@
         <v>22</v>
       </c>
       <c r="C18" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D18" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E18" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F18" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="9"/>
@@ -1040,16 +1040,16 @@
         <v>23</v>
       </c>
       <c r="C19" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D19" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E19" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F19" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="9"/>
